--- a/dataportal/static/data/cijfers.xlsx
+++ b/dataportal/static/data/cijfers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flore.verkest\Documents\documenten\code\digiportal\digiportal\dataportal\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792F3138-E238-4CA7-B127-461E22588188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88433B1E-E1E8-4317-AA3A-5371DFDB06AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D88C103-3BA0-40C2-A824-3C559C99319B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D88C103-3BA0-40C2-A824-3C559C99319B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>IFF</t>
   </si>
@@ -315,6 +315,66 @@
   </si>
   <si>
     <t>YMBTOTAAL</t>
+  </si>
+  <si>
+    <t>IFFobjectnaam</t>
+  </si>
+  <si>
+    <t>IFFtitel</t>
+  </si>
+  <si>
+    <t>IFFafmeting</t>
+  </si>
+  <si>
+    <t>IFFverwerving</t>
+  </si>
+  <si>
+    <t>IFFassociatie</t>
+  </si>
+  <si>
+    <t>IFFiconografie</t>
+  </si>
+  <si>
+    <t>IFFrechten</t>
+  </si>
+  <si>
+    <t>Yobjectnaam</t>
+  </si>
+  <si>
+    <t>Ytitel</t>
+  </si>
+  <si>
+    <t>Yafmeting</t>
+  </si>
+  <si>
+    <t>Yverwerving</t>
+  </si>
+  <si>
+    <t>Yassociatie</t>
+  </si>
+  <si>
+    <t>Yiconografie</t>
+  </si>
+  <si>
+    <t>Yrechten</t>
+  </si>
+  <si>
+    <t>Mobjectnaam</t>
+  </si>
+  <si>
+    <t>Mtitel</t>
+  </si>
+  <si>
+    <t>Mafmeting</t>
+  </si>
+  <si>
+    <t>Mrechten</t>
+  </si>
+  <si>
+    <t>IFFapersoon</t>
+  </si>
+  <si>
+    <t>IFFipersoon</t>
   </si>
 </sst>
 </file>
@@ -687,19 +747,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1187B6C-C222-42BC-B6B7-1F9F8AB8B393}">
-  <dimension ref="A1:Y93"/>
+  <dimension ref="A1:Y113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
-      <selection activeCell="O76" sqref="O76"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="Y114" sqref="Y114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="25" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="25" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -776,7 +836,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -853,7 +913,7 @@
         <v>62390</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -894,7 +954,7 @@
         <v>10534</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -935,7 +995,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -976,7 +1036,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1017,7 +1077,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1058,7 +1118,7 @@
         <v>11680</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1099,7 +1159,7 @@
         <v>25907</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1140,7 +1200,7 @@
         <v>8129</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1181,7 +1241,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1222,7 +1282,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1323,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1304,7 +1364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1345,7 +1405,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1386,7 +1446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1427,7 +1487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1468,7 +1528,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1509,7 +1569,7 @@
         <v>53820</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1550,7 +1610,7 @@
         <v>7154</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1591,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1632,7 +1692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1673,7 +1733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1714,7 +1774,7 @@
         <v>11680</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1755,7 +1815,7 @@
         <v>24400</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1796,7 +1856,7 @@
         <v>7954</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1837,7 +1897,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1878,7 +1938,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1919,7 +1979,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1960,7 +2020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2001,7 +2061,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2042,7 +2102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2083,7 +2143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -2124,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -2177,7 +2237,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -2218,7 +2278,7 @@
         <v>11409</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2259,7 +2319,7 @@
         <v>4476</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2300,7 +2360,7 @@
         <v>4877</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -2341,7 +2401,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -2382,7 +2442,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -2423,7 +2483,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2464,7 +2524,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2505,7 +2565,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -2546,7 +2606,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -2587,7 +2647,7 @@
         <v>4172</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -2628,7 +2688,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -2669,7 +2729,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -2710,7 +2770,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -2751,7 +2811,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -2792,7 +2852,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -2833,7 +2893,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -2874,7 +2934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2963,7 +3023,7 @@
         <v>19451</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3004,7 +3064,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3045,7 +3105,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3086,7 +3146,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3127,7 +3187,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3168,7 +3228,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3209,7 +3269,7 @@
         <v>5481</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3250,7 +3310,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3291,7 +3351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3332,7 +3392,7 @@
         <v>8281</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -3373,7 +3433,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -3414,7 +3474,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -3455,7 +3515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -3496,7 +3556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -3537,7 +3597,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -3578,7 +3638,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -3619,7 +3679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -3660,7 +3720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -3701,7 +3761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -3742,7 +3802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -3819,7 +3879,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -3860,7 +3920,7 @@
         <v>15899</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -3901,7 +3961,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -3942,7 +4002,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -3983,7 +4043,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -4024,7 +4084,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -4065,7 +4125,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -4106,7 +4166,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -4147,7 +4207,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -4188,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -4229,7 +4289,7 @@
         <v>8110</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>69</v>
       </c>
@@ -4270,7 +4330,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -4311,7 +4371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -4352,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -4393,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -4434,7 +4494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>83</v>
       </c>
@@ -4475,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -4516,7 +4576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -4557,7 +4617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -4598,7 +4658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -4639,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -4678,6 +4738,826 @@
       </c>
       <c r="Y93">
         <v>1897</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="N94">
+        <v>48490</v>
+      </c>
+      <c r="O94">
+        <v>48490</v>
+      </c>
+      <c r="P94">
+        <v>49105</v>
+      </c>
+      <c r="Q94">
+        <v>50777</v>
+      </c>
+      <c r="R94">
+        <v>51640</v>
+      </c>
+      <c r="S94">
+        <v>53172</v>
+      </c>
+      <c r="T94">
+        <v>53991</v>
+      </c>
+      <c r="U94">
+        <v>54518</v>
+      </c>
+      <c r="V94">
+        <v>54805</v>
+      </c>
+      <c r="W94">
+        <v>54805</v>
+      </c>
+      <c r="X94">
+        <v>56027</v>
+      </c>
+      <c r="Y94">
+        <v>56085</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="N95">
+        <v>48927</v>
+      </c>
+      <c r="O95">
+        <v>48927</v>
+      </c>
+      <c r="P95">
+        <v>49391</v>
+      </c>
+      <c r="Q95">
+        <v>50104</v>
+      </c>
+      <c r="R95">
+        <v>50130</v>
+      </c>
+      <c r="S95">
+        <v>50564</v>
+      </c>
+      <c r="T95">
+        <v>51338</v>
+      </c>
+      <c r="U95">
+        <v>51924</v>
+      </c>
+      <c r="V95">
+        <v>52299</v>
+      </c>
+      <c r="W95">
+        <v>52299</v>
+      </c>
+      <c r="X95">
+        <v>52860</v>
+      </c>
+      <c r="Y95">
+        <v>53196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="N96">
+        <v>51139</v>
+      </c>
+      <c r="O96">
+        <v>51139</v>
+      </c>
+      <c r="P96">
+        <v>51680</v>
+      </c>
+      <c r="Q96">
+        <v>53351</v>
+      </c>
+      <c r="R96">
+        <v>54289</v>
+      </c>
+      <c r="S96">
+        <v>55815</v>
+      </c>
+      <c r="T96">
+        <v>56292</v>
+      </c>
+      <c r="U96">
+        <v>56819</v>
+      </c>
+      <c r="V96">
+        <v>57108</v>
+      </c>
+      <c r="W96">
+        <v>57108</v>
+      </c>
+      <c r="X96">
+        <v>57891</v>
+      </c>
+      <c r="Y96">
+        <v>57981</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="N97">
+        <v>36177</v>
+      </c>
+      <c r="O97">
+        <v>36177</v>
+      </c>
+      <c r="P97">
+        <v>36790</v>
+      </c>
+      <c r="Q97">
+        <v>38454</v>
+      </c>
+      <c r="R97">
+        <v>39333</v>
+      </c>
+      <c r="S97">
+        <v>40859</v>
+      </c>
+      <c r="T97">
+        <v>41339</v>
+      </c>
+      <c r="U97">
+        <v>41863</v>
+      </c>
+      <c r="V97">
+        <v>42134</v>
+      </c>
+      <c r="W97">
+        <v>42134</v>
+      </c>
+      <c r="X97">
+        <v>42911</v>
+      </c>
+      <c r="Y97">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>881</v>
+      </c>
+      <c r="Q98">
+        <v>4182</v>
+      </c>
+      <c r="R98">
+        <v>5289</v>
+      </c>
+      <c r="S98">
+        <v>5692</v>
+      </c>
+      <c r="T98">
+        <v>6014</v>
+      </c>
+      <c r="U98">
+        <v>6234</v>
+      </c>
+      <c r="V98">
+        <v>6249</v>
+      </c>
+      <c r="W98">
+        <v>6249</v>
+      </c>
+      <c r="X98">
+        <v>6327</v>
+      </c>
+      <c r="Y98">
+        <v>7015</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>111</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>2084</v>
+      </c>
+      <c r="S99">
+        <v>2202</v>
+      </c>
+      <c r="T99">
+        <v>2338</v>
+      </c>
+      <c r="U99">
+        <v>2363</v>
+      </c>
+      <c r="V99">
+        <v>2626</v>
+      </c>
+      <c r="W99">
+        <v>2626</v>
+      </c>
+      <c r="X99">
+        <v>2656</v>
+      </c>
+      <c r="Y99">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100">
+        <v>2</v>
+      </c>
+      <c r="P100">
+        <v>2</v>
+      </c>
+      <c r="Q100">
+        <v>163</v>
+      </c>
+      <c r="R100">
+        <v>212</v>
+      </c>
+      <c r="S100">
+        <v>350</v>
+      </c>
+      <c r="T100">
+        <v>494</v>
+      </c>
+      <c r="U100">
+        <v>621</v>
+      </c>
+      <c r="V100">
+        <v>632</v>
+      </c>
+      <c r="W100">
+        <v>632</v>
+      </c>
+      <c r="X100">
+        <v>635</v>
+      </c>
+      <c r="Y100">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>112</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>16</v>
+      </c>
+      <c r="S101">
+        <v>35</v>
+      </c>
+      <c r="T101">
+        <v>35</v>
+      </c>
+      <c r="U101">
+        <v>35</v>
+      </c>
+      <c r="V101">
+        <v>35</v>
+      </c>
+      <c r="W101">
+        <v>35</v>
+      </c>
+      <c r="X101">
+        <v>57</v>
+      </c>
+      <c r="Y101">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>2104</v>
+      </c>
+      <c r="R102">
+        <v>2348</v>
+      </c>
+      <c r="S102">
+        <v>2348</v>
+      </c>
+      <c r="T102">
+        <v>2348</v>
+      </c>
+      <c r="U102">
+        <v>2348</v>
+      </c>
+      <c r="V102">
+        <v>2348</v>
+      </c>
+      <c r="W102">
+        <v>2348</v>
+      </c>
+      <c r="X102">
+        <v>3960</v>
+      </c>
+      <c r="Y102">
+        <v>6696</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+      <c r="N103">
+        <v>14643</v>
+      </c>
+      <c r="O103">
+        <v>14643</v>
+      </c>
+      <c r="P103">
+        <v>14643</v>
+      </c>
+      <c r="Q103">
+        <v>14660</v>
+      </c>
+      <c r="R103">
+        <v>14644</v>
+      </c>
+      <c r="S103">
+        <v>14654</v>
+      </c>
+      <c r="T103">
+        <v>14682</v>
+      </c>
+      <c r="U103">
+        <v>14682</v>
+      </c>
+      <c r="V103">
+        <v>14781</v>
+      </c>
+      <c r="W103">
+        <v>14781</v>
+      </c>
+      <c r="X103">
+        <v>17296</v>
+      </c>
+      <c r="Y103">
+        <v>18957</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+      <c r="N104">
+        <v>11429</v>
+      </c>
+      <c r="O104">
+        <v>11429</v>
+      </c>
+      <c r="P104">
+        <v>11571</v>
+      </c>
+      <c r="Q104">
+        <v>11732</v>
+      </c>
+      <c r="R104">
+        <v>11715</v>
+      </c>
+      <c r="S104">
+        <v>11831</v>
+      </c>
+      <c r="T104">
+        <v>11968</v>
+      </c>
+      <c r="U104">
+        <v>11969</v>
+      </c>
+      <c r="V104">
+        <v>12079</v>
+      </c>
+      <c r="W104">
+        <v>12079</v>
+      </c>
+      <c r="X104">
+        <v>12286</v>
+      </c>
+      <c r="Y104">
+        <v>12330</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="N105">
+        <v>14586</v>
+      </c>
+      <c r="O105">
+        <v>14586</v>
+      </c>
+      <c r="P105">
+        <v>14586</v>
+      </c>
+      <c r="Q105">
+        <v>14602</v>
+      </c>
+      <c r="R105">
+        <v>14677</v>
+      </c>
+      <c r="S105">
+        <v>14686</v>
+      </c>
+      <c r="T105">
+        <v>14714</v>
+      </c>
+      <c r="U105">
+        <v>14714</v>
+      </c>
+      <c r="V105">
+        <v>14761</v>
+      </c>
+      <c r="W105">
+        <v>14761</v>
+      </c>
+      <c r="X105">
+        <v>14807</v>
+      </c>
+      <c r="Y105">
+        <v>16461</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+      <c r="N106">
+        <v>8602</v>
+      </c>
+      <c r="O106">
+        <v>8602</v>
+      </c>
+      <c r="P106">
+        <v>8602</v>
+      </c>
+      <c r="Q106">
+        <v>8602</v>
+      </c>
+      <c r="R106">
+        <v>8602</v>
+      </c>
+      <c r="S106">
+        <v>8611</v>
+      </c>
+      <c r="T106">
+        <v>8644</v>
+      </c>
+      <c r="U106">
+        <v>8644</v>
+      </c>
+      <c r="V106">
+        <v>8682</v>
+      </c>
+      <c r="W106">
+        <v>8682</v>
+      </c>
+      <c r="X106">
+        <v>8720</v>
+      </c>
+      <c r="Y106">
+        <v>10374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107">
+        <v>2</v>
+      </c>
+      <c r="P107">
+        <v>2</v>
+      </c>
+      <c r="Q107">
+        <v>698</v>
+      </c>
+      <c r="R107">
+        <v>1081</v>
+      </c>
+      <c r="S107">
+        <v>2152</v>
+      </c>
+      <c r="T107">
+        <v>3280</v>
+      </c>
+      <c r="U107">
+        <v>3840</v>
+      </c>
+      <c r="V107">
+        <v>3845</v>
+      </c>
+      <c r="W107">
+        <v>3845</v>
+      </c>
+      <c r="X107">
+        <v>3817</v>
+      </c>
+      <c r="Y107">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>105</v>
+      </c>
+      <c r="N108">
+        <v>217</v>
+      </c>
+      <c r="O108">
+        <v>217</v>
+      </c>
+      <c r="P108">
+        <v>217</v>
+      </c>
+      <c r="Q108">
+        <v>228</v>
+      </c>
+      <c r="R108">
+        <v>229</v>
+      </c>
+      <c r="S108">
+        <v>247</v>
+      </c>
+      <c r="T108">
+        <v>268</v>
+      </c>
+      <c r="U108">
+        <v>368</v>
+      </c>
+      <c r="V108">
+        <v>365</v>
+      </c>
+      <c r="W108">
+        <v>365</v>
+      </c>
+      <c r="X108">
+        <v>365</v>
+      </c>
+      <c r="Y108">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>166</v>
+      </c>
+      <c r="R109">
+        <v>3379</v>
+      </c>
+      <c r="S109">
+        <v>3379</v>
+      </c>
+      <c r="T109">
+        <v>3380</v>
+      </c>
+      <c r="U109">
+        <v>3380</v>
+      </c>
+      <c r="V109">
+        <v>3380</v>
+      </c>
+      <c r="W109">
+        <v>3380</v>
+      </c>
+      <c r="X109">
+        <v>4261</v>
+      </c>
+      <c r="Y109">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="N110">
+        <v>2048</v>
+      </c>
+      <c r="O110">
+        <v>2048</v>
+      </c>
+      <c r="P110">
+        <v>2048</v>
+      </c>
+      <c r="Q110">
+        <v>2048</v>
+      </c>
+      <c r="R110">
+        <v>2049</v>
+      </c>
+      <c r="S110">
+        <v>2049</v>
+      </c>
+      <c r="T110">
+        <v>2147</v>
+      </c>
+      <c r="U110">
+        <v>2147</v>
+      </c>
+      <c r="V110">
+        <v>2151</v>
+      </c>
+      <c r="W110">
+        <v>2151</v>
+      </c>
+      <c r="X110">
+        <v>2156</v>
+      </c>
+      <c r="Y110">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>108</v>
+      </c>
+      <c r="N111">
+        <v>2033</v>
+      </c>
+      <c r="O111">
+        <v>2033</v>
+      </c>
+      <c r="P111">
+        <v>2033</v>
+      </c>
+      <c r="Q111">
+        <v>2033</v>
+      </c>
+      <c r="R111">
+        <v>2026</v>
+      </c>
+      <c r="S111">
+        <v>2026</v>
+      </c>
+      <c r="T111">
+        <v>2063</v>
+      </c>
+      <c r="U111">
+        <v>2063</v>
+      </c>
+      <c r="V111">
+        <v>2067</v>
+      </c>
+      <c r="W111">
+        <v>2067</v>
+      </c>
+      <c r="X111">
+        <v>2069</v>
+      </c>
+      <c r="Y111">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>109</v>
+      </c>
+      <c r="N112">
+        <v>2029</v>
+      </c>
+      <c r="O112">
+        <v>2029</v>
+      </c>
+      <c r="P112">
+        <v>2029</v>
+      </c>
+      <c r="Q112">
+        <v>2029</v>
+      </c>
+      <c r="R112">
+        <v>2023</v>
+      </c>
+      <c r="S112">
+        <v>2023</v>
+      </c>
+      <c r="T112">
+        <v>2084</v>
+      </c>
+      <c r="U112">
+        <v>2084</v>
+      </c>
+      <c r="V112">
+        <v>2088</v>
+      </c>
+      <c r="W112">
+        <v>2088</v>
+      </c>
+      <c r="X112">
+        <v>2088</v>
+      </c>
+      <c r="Y112">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>110</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>1827</v>
+      </c>
+      <c r="R113">
+        <v>1827</v>
+      </c>
+      <c r="S113">
+        <v>1827</v>
+      </c>
+      <c r="T113">
+        <v>1827</v>
+      </c>
+      <c r="U113">
+        <v>1827</v>
+      </c>
+      <c r="V113">
+        <v>1827</v>
+      </c>
+      <c r="W113">
+        <v>1827</v>
+      </c>
+      <c r="X113">
+        <v>1843</v>
+      </c>
+      <c r="Y113">
+        <v>1848</v>
       </c>
     </row>
   </sheetData>

--- a/dataportal/static/data/cijfers.xlsx
+++ b/dataportal/static/data/cijfers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flore.verkest\Documents\documenten\code\digiportal\digiportal\dataportal\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88433B1E-E1E8-4317-AA3A-5371DFDB06AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05523EA-5CA7-49FA-B646-8FC034FF4A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D88C103-3BA0-40C2-A824-3C559C99319B}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{6D88C103-3BA0-40C2-A824-3C559C99319B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="2" r:id="rId1"/>
@@ -747,19 +747,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1187B6C-C222-42BC-B6B7-1F9F8AB8B393}">
-  <dimension ref="A1:Y113"/>
+  <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="Y114" sqref="Y114"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z52" sqref="Z52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="25" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="25" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -835,8 +836,11 @@
       <c r="Y1" s="1">
         <v>45627</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z1" s="1">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -912,8 +916,12 @@
       <c r="Y2">
         <v>62390</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2">
+        <f>SUM(Z3:Z17)</f>
+        <v>62425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -953,8 +961,11 @@
       <c r="Y3">
         <v>10534</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3">
+        <v>10569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -994,8 +1005,11 @@
       <c r="Y4">
         <v>197</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1035,8 +1049,11 @@
       <c r="Y5">
         <v>297</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1076,8 +1093,11 @@
       <c r="Y6">
         <v>219</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1117,8 +1137,11 @@
       <c r="Y7">
         <v>11680</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <v>11680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="Y8">
         <v>25907</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8">
+        <v>25907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1199,8 +1225,11 @@
       <c r="Y9">
         <v>8129</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9">
+        <v>8129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1240,8 +1269,11 @@
       <c r="Y10">
         <v>1587</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1281,8 +1313,11 @@
       <c r="Y11">
         <v>407</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z11">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1322,8 +1357,11 @@
       <c r="Y12">
         <v>473</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z12">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1363,8 +1401,11 @@
       <c r="Y13">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1404,8 +1445,11 @@
       <c r="Y14">
         <v>325</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z14">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1445,8 +1489,11 @@
       <c r="Y15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1486,8 +1533,11 @@
       <c r="Y16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1527,8 +1577,11 @@
       <c r="Y17">
         <v>2615</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1568,8 +1621,12 @@
       <c r="Y18">
         <v>53820</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18">
+        <f>SUM(Z19:Z33)</f>
+        <v>53818</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1609,8 +1666,11 @@
       <c r="Y19">
         <v>7154</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19">
+        <v>7153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1650,8 +1710,11 @@
       <c r="Y20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1691,8 +1754,11 @@
       <c r="Y21">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1732,8 +1798,11 @@
       <c r="Y22">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1773,8 +1842,11 @@
       <c r="Y23">
         <v>11680</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z23">
+        <v>11680</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1814,8 +1886,11 @@
       <c r="Y24">
         <v>24400</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1855,8 +1930,11 @@
       <c r="Y25">
         <v>7954</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z25">
+        <v>7954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1896,8 +1974,11 @@
       <c r="Y26">
         <v>1481</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z26">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2018,11 @@
       <c r="Y27">
         <v>406</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z27">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1978,8 +2062,11 @@
       <c r="Y28">
         <v>473</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z28">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2019,8 +2106,11 @@
       <c r="Y29">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2060,8 +2150,11 @@
       <c r="Y30">
         <v>171</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z30">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2101,8 +2194,11 @@
       <c r="Y31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2142,8 +2238,11 @@
       <c r="Y32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -2183,8 +2282,11 @@
       <c r="Y33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -2236,8 +2338,11 @@
         <f t="shared" si="0"/>
         <v>2056</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z34">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -2277,8 +2382,11 @@
       <c r="Y35">
         <v>11409</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z35">
+        <v>11444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2318,8 +2426,11 @@
       <c r="Y36">
         <v>4476</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z36">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2359,8 +2470,11 @@
       <c r="Y37">
         <v>4877</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z37">
+        <v>4891</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -2400,8 +2514,11 @@
       <c r="Y38">
         <v>1567</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z38">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -2441,8 +2558,11 @@
       <c r="Y39">
         <v>2116</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z39">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2602,11 @@
       <c r="Y40">
         <v>359</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z40">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2523,8 +2646,11 @@
       <c r="Y41">
         <v>280</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z41">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2564,8 +2690,11 @@
       <c r="Y42">
         <v>245</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z42">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -2605,8 +2734,11 @@
       <c r="Y43">
         <v>1356</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z43">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -2646,8 +2778,11 @@
       <c r="Y44">
         <v>4172</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z44">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -2687,8 +2822,11 @@
       <c r="Y45">
         <v>3148</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z45">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -2728,8 +2866,11 @@
       <c r="Y46">
         <v>582</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z46">
+        <v>5852</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -2769,8 +2910,11 @@
       <c r="Y47">
         <v>251</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z47">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2954,11 @@
       <c r="Y48">
         <v>128</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z48">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -2851,8 +2998,11 @@
       <c r="Y49">
         <v>262</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z49">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -2892,8 +3042,11 @@
       <c r="Y50">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z50">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -2933,8 +3086,11 @@
       <c r="Y51">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z51">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -3022,8 +3178,12 @@
         <f t="shared" si="1"/>
         <v>19451</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z52">
+        <f>SUM(Z53:Z71)</f>
+        <v>19451</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3063,8 +3223,11 @@
       <c r="Y53">
         <v>777</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z53">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3104,8 +3267,11 @@
       <c r="Y54">
         <v>668</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z54">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3145,8 +3311,11 @@
       <c r="Y55">
         <v>1358</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z55">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3186,8 +3355,11 @@
       <c r="Y56">
         <v>65</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z56">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3227,8 +3399,11 @@
       <c r="Y57">
         <v>635</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z57">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3268,8 +3443,11 @@
       <c r="Y58">
         <v>5481</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z58">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3309,8 +3487,11 @@
       <c r="Y59">
         <v>1201</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z59">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3350,8 +3531,11 @@
       <c r="Y60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3391,8 +3575,11 @@
       <c r="Y61">
         <v>8281</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z61">
+        <v>8281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -3432,8 +3619,11 @@
       <c r="Y62">
         <v>488</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z62">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -3473,8 +3663,11 @@
       <c r="Y63">
         <v>121</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z63">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -3514,8 +3707,11 @@
       <c r="Y64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -3555,8 +3751,11 @@
       <c r="Y65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -3596,8 +3795,11 @@
       <c r="Y66">
         <v>95</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z66">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -3637,8 +3839,11 @@
       <c r="Y67">
         <v>197</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z67">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -3678,8 +3883,11 @@
       <c r="Y68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -3719,8 +3927,11 @@
       <c r="Y69">
         <v>27</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z69">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -3760,8 +3971,11 @@
       <c r="Y70">
         <v>39</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z70">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +4015,11 @@
       <c r="Y71">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -3878,8 +4095,11 @@
       <c r="Y72">
         <v>2162</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z72">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -3919,8 +4139,12 @@
       <c r="Y73">
         <v>15899</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z73">
+        <f>SUM(Z74:Z92)</f>
+        <v>15899</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -3960,8 +4184,11 @@
       <c r="Y74">
         <v>445</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z74">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -4001,8 +4228,11 @@
       <c r="Y75">
         <v>472</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z75">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -4042,8 +4272,11 @@
       <c r="Y76">
         <v>1320</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z76">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -4083,8 +4316,11 @@
       <c r="Y77">
         <v>65</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z77">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -4124,8 +4360,11 @@
       <c r="Y78">
         <v>410</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z78">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -4165,8 +4404,11 @@
       <c r="Y79">
         <v>3533</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z79">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -4206,8 +4448,11 @@
       <c r="Y80">
         <v>1201</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z80">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -4247,8 +4492,11 @@
       <c r="Y81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -4288,8 +4536,11 @@
       <c r="Y82">
         <v>8110</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z82">
+        <v>8110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>69</v>
       </c>
@@ -4329,8 +4580,11 @@
       <c r="Y83">
         <v>260</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z83">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -4370,8 +4624,11 @@
       <c r="Y84">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -4411,8 +4668,11 @@
       <c r="Y85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -4452,8 +4712,11 @@
       <c r="Y86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -4493,8 +4756,11 @@
       <c r="Y87">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>83</v>
       </c>
@@ -4534,8 +4800,11 @@
       <c r="Y88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -4575,8 +4844,11 @@
       <c r="Y89">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -4616,8 +4888,11 @@
       <c r="Y90">
         <v>26</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z90">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -4657,8 +4932,11 @@
       <c r="Y91">
         <v>39</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z91">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -4698,8 +4976,11 @@
       <c r="Y92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -4739,8 +5020,11 @@
       <c r="Y93">
         <v>1897</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z93">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -4780,8 +5064,11 @@
       <c r="Y94">
         <v>56085</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z94">
+        <v>56113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -4821,8 +5108,11 @@
       <c r="Y95">
         <v>53196</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z95">
+        <v>53264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -4862,8 +5152,11 @@
       <c r="Y96">
         <v>57981</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z96">
+        <v>58045</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -4903,8 +5196,11 @@
       <c r="Y97">
         <v>42925</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z97">
+        <v>42931</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -4944,8 +5240,11 @@
       <c r="Y98">
         <v>7015</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z98">
+        <v>8787</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>111</v>
       </c>
@@ -4985,8 +5284,11 @@
       <c r="Y99">
         <v>2906</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z99">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -5026,8 +5328,11 @@
       <c r="Y100">
         <v>1037</v>
       </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z100">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -5067,8 +5372,11 @@
       <c r="Y101">
         <v>58</v>
       </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z101">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -5108,8 +5416,11 @@
       <c r="Y102">
         <v>6696</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z102">
+        <v>9470</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -5149,8 +5460,11 @@
       <c r="Y103">
         <v>18957</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z103">
+        <v>18958</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -5190,8 +5504,11 @@
       <c r="Y104">
         <v>12330</v>
       </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z104">
+        <v>12332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -5231,8 +5548,11 @@
       <c r="Y105">
         <v>16461</v>
       </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z105">
+        <v>16461</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -5272,8 +5592,11 @@
       <c r="Y106">
         <v>10374</v>
       </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z106">
+        <v>10376</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -5313,8 +5636,11 @@
       <c r="Y107">
         <v>3819</v>
       </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z107">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -5354,8 +5680,11 @@
       <c r="Y108">
         <v>244</v>
       </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z108">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -5395,8 +5724,11 @@
       <c r="Y109">
         <v>4679</v>
       </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z109">
+        <v>5444</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -5436,8 +5768,11 @@
       <c r="Y110">
         <v>2156</v>
       </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z110">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -5477,8 +5812,11 @@
       <c r="Y111">
         <v>2069</v>
       </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z111">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -5518,8 +5856,11 @@
       <c r="Y112">
         <v>2088</v>
       </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z112">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -5558,6 +5899,9 @@
       </c>
       <c r="Y113">
         <v>1848</v>
+      </c>
+      <c r="Z113">
+        <v>1870</v>
       </c>
     </row>
   </sheetData>
